--- a/data/trans_dic/P16A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A_R-Edad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.001833948175105872</v>
+        <v>0.001836733478143047</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.005825560376320534</v>
+        <v>0.005866009748391769</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.003324361531253032</v>
+        <v>0.002534991313478626</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.003129437830487432</v>
+        <v>0.003065045321221952</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02200667381509049</v>
+        <v>0.02231373926230205</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01539201277070527</v>
+        <v>0.01572820938306596</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01621994305292943</v>
+        <v>0.01687305340026713</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0166079730807827</v>
+        <v>0.01684135585628409</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01288859029896935</v>
+        <v>0.01350538371872837</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01306278621769781</v>
+        <v>0.01365417126208956</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.0117147342081943</v>
+        <v>0.01179298183790169</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01515015344548603</v>
+        <v>0.01373798619849377</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01508461167470069</v>
+        <v>0.01671077252476585</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02659068386375985</v>
+        <v>0.02704936387177464</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02891292295571216</v>
+        <v>0.02477155312033883</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05131153550123982</v>
+        <v>0.04330237729152137</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05492052524470968</v>
+        <v>0.05527455017322822</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04743337200444622</v>
+        <v>0.04996007708658723</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05207126752096346</v>
+        <v>0.0525696592571621</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.09156164511450354</v>
+        <v>0.09111681986438565</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03094721914406955</v>
+        <v>0.03045028958214122</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.0336194182824447</v>
+        <v>0.0328824696388348</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03236300532706061</v>
+        <v>0.03249726779405281</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.05299225531182484</v>
+        <v>0.05130377059492828</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.03583775629220533</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.04282703156709877</v>
+        <v>0.04282703156709878</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.0361620311502559</v>
@@ -833,7 +833,7 @@
         <v>0.02952986723534263</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.03320942636935801</v>
+        <v>0.03320942636935802</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01826774231069382</v>
+        <v>0.01861283761615013</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02429225705860814</v>
+        <v>0.02493821446527256</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01334241222376904</v>
+        <v>0.0149127549177349</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01066634313153707</v>
+        <v>0.01075426986292617</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02981304350953893</v>
+        <v>0.03078239103646274</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03641749017227043</v>
+        <v>0.03488003952081258</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02312915444842047</v>
+        <v>0.02334988094012105</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02585399279823666</v>
+        <v>0.02551608191205973</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0273884188354436</v>
+        <v>0.02737732214164173</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03557233522448502</v>
+        <v>0.0337634201903732</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02131966542654019</v>
+        <v>0.02130704629876801</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.022597444439288</v>
+        <v>0.0219663248069638</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04186212867843805</v>
+        <v>0.04388058982416237</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0594534161260818</v>
+        <v>0.0582303789207196</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03841977653821267</v>
+        <v>0.03875143039166319</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04662964924046181</v>
+        <v>0.04502142239178333</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.06364569142603149</v>
+        <v>0.06375261424962043</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.07706563698946402</v>
+        <v>0.07505857465489141</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05380393072693791</v>
+        <v>0.05387075347780929</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.06546164079276164</v>
+        <v>0.06578727684958738</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04860404162715394</v>
+        <v>0.04744713684686706</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.05983307423694161</v>
+        <v>0.05803178979565487</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04060613113902255</v>
+        <v>0.04000822768774769</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.0472594616677252</v>
+        <v>0.0461150409878848</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.051500336019492</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.05062489045094512</v>
+        <v>0.05062489045094513</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.07791271046745109</v>
@@ -969,7 +969,7 @@
         <v>0.07089842228704023</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.07135782664060689</v>
+        <v>0.07135782664060687</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01633843035884332</v>
+        <v>0.01792660936403609</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04015772931995816</v>
+        <v>0.03835016524557962</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0360148637672341</v>
+        <v>0.03547053687420351</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03444491333892311</v>
+        <v>0.03407598555764547</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05922249753490221</v>
+        <v>0.05950807779343116</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.09505462137561212</v>
+        <v>0.09486682524623681</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06992954246880488</v>
+        <v>0.0703578848642186</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.07347047149250163</v>
+        <v>0.07500450445965924</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04249523582657239</v>
+        <v>0.04313244557662568</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.07177032399530507</v>
+        <v>0.07411861150010954</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.0589417897441001</v>
+        <v>0.05729926460836371</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05968425689592426</v>
+        <v>0.05873374519086535</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04281711205468845</v>
+        <v>0.0438707030470756</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07769296157126333</v>
+        <v>0.07778226550190402</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07332581372796848</v>
+        <v>0.0705542353985748</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.072580374612839</v>
+        <v>0.07259124408341126</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1017845823372269</v>
+        <v>0.100213142148391</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1451128809052327</v>
+        <v>0.1447705092829992</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1130737592493729</v>
+        <v>0.1148629911119087</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1125854226571611</v>
+        <v>0.1145831960196105</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0670712873557817</v>
+        <v>0.06683083459794804</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1053315440509574</v>
+        <v>0.105237579712115</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0875983739236474</v>
+        <v>0.08556950911473674</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.08580801432838885</v>
+        <v>0.08633254690767592</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03592763077033699</v>
+        <v>0.03619152345490732</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04860180552649969</v>
+        <v>0.04800572463641776</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05084232222620456</v>
+        <v>0.04997649130358012</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07118329276372912</v>
+        <v>0.07247597607028743</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1043944760584561</v>
+        <v>0.1093953579807842</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1394075517957267</v>
+        <v>0.1403024975758812</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1265882437910627</v>
+        <v>0.1277903443381706</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1246634313439376</v>
+        <v>0.1266252543693385</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07903562954545509</v>
+        <v>0.07960612087043467</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.09890684170683374</v>
+        <v>0.0971450671262705</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.09518601159494587</v>
+        <v>0.09517320589316658</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1050906777376757</v>
+        <v>0.1055179252297453</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07923077656625362</v>
+        <v>0.07892501772716709</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08810172733313462</v>
+        <v>0.09088588897907096</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09188996637741284</v>
+        <v>0.0910223673802769</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1172102418444126</v>
+        <v>0.1191982844215369</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1651637115924106</v>
+        <v>0.1682958710309571</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2031776086124482</v>
+        <v>0.2064676393775631</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1838944942631725</v>
+        <v>0.1846736970895644</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1662608641463536</v>
+        <v>0.1668784096805806</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1121393934478043</v>
+        <v>0.1157364822674614</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1401211173074517</v>
+        <v>0.1377554718215323</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1322104249845814</v>
+        <v>0.1307632180897008</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1358265348080091</v>
+        <v>0.1355119453199386</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.08937542258620929</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1186831844659003</v>
+        <v>0.1186831844659004</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1868174111058588</v>
@@ -1229,7 +1229,7 @@
         <v>0.2625049652739882</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.2506854545544764</v>
+        <v>0.2506854545544765</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.1335519872727212</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05394632654480757</v>
+        <v>0.0521514678576034</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.07400302618556315</v>
+        <v>0.07739911826241952</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.06441525979465165</v>
+        <v>0.06355842798946976</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.09520475386579276</v>
+        <v>0.09543318232273466</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1508708207628396</v>
+        <v>0.1540979830592125</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1939241058283994</v>
+        <v>0.1935999843427284</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2241128520026509</v>
+        <v>0.2241346742107128</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2252057202812589</v>
+        <v>0.2236881466899239</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1105598546520723</v>
+        <v>0.1111335752009633</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1473133641055989</v>
+        <v>0.1482063310343739</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1543587410777539</v>
+        <v>0.1529543830917475</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1673758940103668</v>
+        <v>0.1648638451155564</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1091397004407301</v>
+        <v>0.1066376514262276</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1349925197930648</v>
+        <v>0.1399303287606194</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1203568026666848</v>
+        <v>0.1178026157294761</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1469510309269975</v>
+        <v>0.1444181816989703</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.224321459127727</v>
+        <v>0.2249647480091568</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2748456405415233</v>
+        <v>0.2752804892246711</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3063668125577925</v>
+        <v>0.3015656284384516</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.279067771894303</v>
+        <v>0.2790434110501769</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1584425333436145</v>
+        <v>0.1579570602977797</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1984836394891654</v>
+        <v>0.1967827807346727</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2050379875435102</v>
+        <v>0.2042593865602754</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2054726519279456</v>
+        <v>0.2032216617661178</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.1027255133786797</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.1185843637950458</v>
+        <v>0.1185843637950459</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.2023816863146591</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.06763777200445673</v>
+        <v>0.07006535853707638</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.07354656871133686</v>
+        <v>0.07396240912505335</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.07458382876486269</v>
+        <v>0.073463628896154</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.094852594792407</v>
+        <v>0.09505828314051333</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1634119265193132</v>
+        <v>0.1617668899997545</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2135927850998133</v>
+        <v>0.2111754063736588</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2498502951958546</v>
+        <v>0.2527613354203558</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2527536525235594</v>
+        <v>0.2515564030960473</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1286619293031289</v>
+        <v>0.1281751904056986</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1596558578939675</v>
+        <v>0.1572546200420286</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1774517138301864</v>
+        <v>0.1768285713261825</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1862979912505392</v>
+        <v>0.1839285020776106</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1320610549501292</v>
+        <v>0.1364160586621794</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1496736131103792</v>
+        <v>0.1516433665195167</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1381977297699404</v>
+        <v>0.1392253306073581</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1478199633489926</v>
+        <v>0.1449328845061147</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2449558792513437</v>
+        <v>0.2439619090300986</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3032754260703758</v>
+        <v>0.3063700643615804</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3458366213178032</v>
+        <v>0.3518287541472688</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3181501978458166</v>
+        <v>0.3133754467686526</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1818264011619163</v>
+        <v>0.1828134274547427</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2225015558041207</v>
+        <v>0.2199830821350954</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2383437834179389</v>
+        <v>0.2382988769811208</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2295832268165023</v>
+        <v>0.2273114554497191</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1057221798542421</v>
+        <v>0.105749207341887</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1022556560871927</v>
+        <v>0.1004462250281817</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.106733286947021</v>
+        <v>0.1114777966784032</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1909548522635187</v>
+        <v>0.1920178820606415</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1473557393981942</v>
+        <v>0.1467285675852024</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.275396117834849</v>
+        <v>0.2743928785008511</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2097326036347353</v>
+        <v>0.2107856139764726</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3388111752190181</v>
+        <v>0.3414594654887048</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1438365930714694</v>
+        <v>0.1418059838807531</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2161324481703429</v>
+        <v>0.2150847939004616</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1844581534676931</v>
+        <v>0.1846604592356572</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.290596888826074</v>
+        <v>0.2891639466265522</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.201962834960616</v>
+        <v>0.2011735112611046</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2022740887225224</v>
+        <v>0.1973868270534664</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1871727340405164</v>
+        <v>0.1913660366226912</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2655609445145808</v>
+        <v>0.2689876917926005</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2366981505364956</v>
+        <v>0.2382309170945411</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3763087446999157</v>
+        <v>0.3774436139956714</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3097376346852462</v>
+        <v>0.3135734973228977</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4066943009204779</v>
+        <v>0.4051466230845188</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2077658078098669</v>
+        <v>0.2108077662390498</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2899347667564905</v>
+        <v>0.2875075222571931</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2518180170823129</v>
+        <v>0.2532544263212626</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3402276841574239</v>
+        <v>0.3399861774145997</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.1518761437633046</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.1746000586174658</v>
+        <v>0.1746000586174659</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.08080730570318109</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.0420732608442741</v>
+        <v>0.0426970094682789</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.05813063991163545</v>
+        <v>0.05746668967104272</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.05452705418241923</v>
+        <v>0.05487889444617853</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.07680896252088661</v>
+        <v>0.07720743472747255</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1014400154049544</v>
+        <v>0.1013560041919524</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1434550107223809</v>
+        <v>0.1432160928701153</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1397812206681608</v>
+        <v>0.13968864298809</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1642613995045958</v>
+        <v>0.1656248994785302</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.07444903985757284</v>
+        <v>0.07355411007078812</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1045563095667852</v>
+        <v>0.1044980968154723</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1005581341675076</v>
+        <v>0.1006724758896181</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1252344288296142</v>
+        <v>0.1247829083231158</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.05711691939304123</v>
+        <v>0.05676361908476334</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.07669556211991747</v>
+        <v>0.07529091260980979</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.07229249793615865</v>
+        <v>0.0714587886004555</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.09592231400750947</v>
+        <v>0.09628282270148825</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1229058573576801</v>
+        <v>0.1232384754402429</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1693078760066396</v>
+        <v>0.1684638530021988</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1649289782620119</v>
+        <v>0.165426064505011</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1847286610536542</v>
+        <v>0.1858114030307083</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.08838235495880821</v>
+        <v>0.08770765617422931</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1196072179792998</v>
+        <v>0.1196998952315047</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1160952366650049</v>
+        <v>0.1159624068668762</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1389990655670844</v>
+        <v>0.1388571139817483</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2646</v>
+        <v>2664</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1394</v>
+        <v>1063</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1276</v>
+        <v>1250</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>10288</v>
+        <v>10431</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>6622</v>
+        <v>6767</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>6419</v>
+        <v>6678</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>6021</v>
+        <v>6105</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>12393</v>
+        <v>12986</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>11552</v>
+        <v>12075</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>9550</v>
+        <v>9614</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>11670</v>
+        <v>10582</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>7453</v>
+        <v>8256</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>12076</v>
+        <v>12284</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>12128</v>
+        <v>10391</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>20924</v>
+        <v>17658</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>25675</v>
+        <v>25840</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>20407</v>
+        <v>21494</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>20607</v>
+        <v>20805</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>33192</v>
+        <v>33031</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>29757</v>
+        <v>29280</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>29732</v>
+        <v>29080</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>26383</v>
+        <v>26492</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>40820</v>
+        <v>39520</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>13436</v>
+        <v>13690</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>16691</v>
+        <v>17135</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>7879</v>
+        <v>8806</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>5087</v>
+        <v>5129</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>18648</v>
+        <v>19254</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>22224</v>
+        <v>21286</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>13034</v>
+        <v>13159</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>12972</v>
+        <v>12802</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>37275</v>
+        <v>37260</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>46149</v>
+        <v>43803</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>24604</v>
+        <v>24589</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>22114</v>
+        <v>21497</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>30789</v>
+        <v>32274</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>40850</v>
+        <v>40009</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>22687</v>
+        <v>22883</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>22237</v>
+        <v>21470</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>39810</v>
+        <v>39877</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>47030</v>
+        <v>45805</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>30321</v>
+        <v>30359</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>32844</v>
+        <v>33008</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>66149</v>
+        <v>64575</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>77624</v>
+        <v>75287</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>46861</v>
+        <v>46171</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>46249</v>
+        <v>45129</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>10435</v>
+        <v>11449</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>27382</v>
+        <v>26150</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>24097</v>
+        <v>23733</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>21385</v>
+        <v>21156</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>40848</v>
+        <v>41045</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>67570</v>
+        <v>67436</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>46250</v>
+        <v>46534</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>45786</v>
+        <v>46742</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>56451</v>
+        <v>57298</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>99955</v>
+        <v>103226</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>78421</v>
+        <v>76236</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>74249</v>
+        <v>73066</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>27346</v>
+        <v>28019</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>52976</v>
+        <v>53037</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>49062</v>
+        <v>47208</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>45061</v>
+        <v>45067</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>70205</v>
+        <v>69121</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>103153</v>
+        <v>102910</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>74785</v>
+        <v>75969</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>70162</v>
+        <v>71407</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>89098</v>
+        <v>88779</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>146697</v>
+        <v>146566</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>116548</v>
+        <v>113849</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>106748</v>
+        <v>107400</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>18652</v>
+        <v>18789</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>29871</v>
+        <v>29505</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>32847</v>
+        <v>32287</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>49872</v>
+        <v>50778</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>53830</v>
+        <v>56409</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>85903</v>
+        <v>86454</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>82166</v>
+        <v>82946</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>91863</v>
+        <v>93308</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>81785</v>
+        <v>82376</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>121736</v>
+        <v>119568</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>123278</v>
+        <v>123261</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>151068</v>
+        <v>151682</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>41132</v>
+        <v>40974</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>54149</v>
+        <v>55860</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>59365</v>
+        <v>58805</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>82119</v>
+        <v>83512</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>85165</v>
+        <v>86780</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>125198</v>
+        <v>127225</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>119362</v>
+        <v>119867</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>122515</v>
+        <v>122970</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>116041</v>
+        <v>119763</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>172463</v>
+        <v>169552</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>171229</v>
+        <v>169355</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>195251</v>
+        <v>194799</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>20862</v>
+        <v>20167</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>31779</v>
+        <v>33237</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>30785</v>
+        <v>30376</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>58013</v>
+        <v>58152</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>60950</v>
+        <v>62253</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>86839</v>
+        <v>86694</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>111350</v>
+        <v>111361</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>137118</v>
+        <v>136194</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>87419</v>
+        <v>87873</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>129228</v>
+        <v>130011</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>150464</v>
+        <v>149095</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>203898</v>
+        <v>200837</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>42205</v>
+        <v>41238</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>57970</v>
+        <v>60090</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>57521</v>
+        <v>56300</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>89544</v>
+        <v>88001</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>90623</v>
+        <v>90883</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>123076</v>
+        <v>123271</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>152218</v>
+        <v>149833</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>169912</v>
+        <v>169897</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>125280</v>
+        <v>124896</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>174116</v>
+        <v>172624</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>199864</v>
+        <v>199105</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>250307</v>
+        <v>247565</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>19790</v>
+        <v>20500</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>22784</v>
+        <v>22913</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>24936</v>
+        <v>24561</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>38613</v>
+        <v>38696</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>56040</v>
+        <v>55475</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>75611</v>
+        <v>74755</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>94384</v>
+        <v>95484</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>111001</v>
+        <v>110475</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>81767</v>
+        <v>81458</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>105977</v>
+        <v>104383</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>126362</v>
+        <v>125918</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>157654</v>
+        <v>155649</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>38639</v>
+        <v>39913</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>46367</v>
+        <v>46977</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>46204</v>
+        <v>46547</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>60175</v>
+        <v>58999</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>84004</v>
+        <v>83663</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>107358</v>
+        <v>108454</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>130644</v>
+        <v>132908</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>139721</v>
+        <v>137624</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>115554</v>
+        <v>116181</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>147693</v>
+        <v>146021</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>169723</v>
+        <v>169691</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>194284</v>
+        <v>192361</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>22189</v>
+        <v>22195</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>25549</v>
+        <v>25097</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>27430</v>
+        <v>28650</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>59234</v>
+        <v>59564</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>49203</v>
+        <v>48994</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>107123</v>
+        <v>106733</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>83928</v>
+        <v>84350</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>157415</v>
+        <v>158645</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>78217</v>
+        <v>77113</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>138072</v>
+        <v>137403</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>121220</v>
+        <v>121353</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>225157</v>
+        <v>224046</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>42389</v>
+        <v>42223</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>50538</v>
+        <v>49317</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>48103</v>
+        <v>49181</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>82376</v>
+        <v>83439</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>79035</v>
+        <v>79547</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>146376</v>
+        <v>146818</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>123947</v>
+        <v>125482</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>188954</v>
+        <v>188235</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>112981</v>
+        <v>114635</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>185219</v>
+        <v>183668</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>165486</v>
+        <v>166430</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>263611</v>
+        <v>263424</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>137855</v>
+        <v>139899</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>199201</v>
+        <v>196926</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>185084</v>
+        <v>186278</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>271348</v>
+        <v>272755</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>342786</v>
+        <v>342502</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>510457</v>
+        <v>509607</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>495460</v>
+        <v>495132</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>613837</v>
+        <v>618933</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>495514</v>
+        <v>489557</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>730335</v>
+        <v>729928</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>697762</v>
+        <v>698555</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>910419</v>
+        <v>907136</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>187146</v>
+        <v>185988</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>262819</v>
+        <v>258005</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>245386</v>
+        <v>242556</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>338871</v>
+        <v>340144</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>415323</v>
+        <v>416447</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>602450</v>
+        <v>599446</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>584598</v>
+        <v>586360</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>690323</v>
+        <v>694369</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>588250</v>
+        <v>583759</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>835467</v>
+        <v>836114</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>805572</v>
+        <v>804651</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1010484</v>
+        <v>1009452</v>
       </c>
     </row>
     <row r="36">
